--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
@@ -36,10 +36,10 @@
     <t>When user id and password are valid</t>
   </si>
   <si>
-    <t>naeemcar</t>
-  </si>
-  <si>
     <t>pakistan1</t>
+  </si>
+  <si>
+    <t>abby</t>
   </si>
 </sst>
 </file>
@@ -390,10 +390,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2">
         <v>12345</v>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
@@ -39,7 +39,7 @@
     <t>pakistan1</t>
   </si>
   <si>
-    <t>abby</t>
+    <t>tango</t>
   </si>
 </sst>
 </file>
@@ -360,7 +360,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
@@ -39,7 +39,7 @@
     <t>pakistan1</t>
   </si>
   <si>
-    <t>tango</t>
+    <t>A7575254900</t>
   </si>
 </sst>
 </file>
@@ -360,7 +360,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,7 +396,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>12345</v>
+        <v>12345678</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
@@ -39,7 +39,7 @@
     <t>pakistan1</t>
   </si>
   <si>
-    <t>abby</t>
+    <t>A7575254900</t>
   </si>
 </sst>
 </file>
@@ -360,7 +360,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,7 +396,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>12345</v>
+        <v>12345678</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
@@ -39,7 +39,7 @@
     <t>pakistan1</t>
   </si>
   <si>
-    <t>A7575254900</t>
+    <t>ABBY</t>
   </si>
 </sst>
 </file>
@@ -360,7 +360,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
@@ -39,7 +39,7 @@
     <t>pakistan1</t>
   </si>
   <si>
-    <t>ABBY</t>
+    <t>YASIR113</t>
   </si>
 </sst>
 </file>
@@ -360,7 +360,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
@@ -39,7 +39,7 @@
     <t>pakistan1</t>
   </si>
   <si>
-    <t>YASIR113</t>
+    <t>ABBY</t>
   </si>
 </sst>
 </file>
@@ -360,7 +360,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
@@ -39,7 +39,7 @@
     <t>pakistan1</t>
   </si>
   <si>
-    <t>ABBY</t>
+    <t>PANA</t>
   </si>
 </sst>
 </file>
@@ -360,7 +360,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
@@ -39,7 +39,7 @@
     <t>pakistan1</t>
   </si>
   <si>
-    <t>PANA</t>
+    <t>YASIR113</t>
   </si>
 </sst>
 </file>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
@@ -360,7 +360,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Case</t>
   </si>
@@ -39,7 +39,10 @@
     <t>pakistan1</t>
   </si>
   <si>
-    <t>YASIR113</t>
+    <t>SAMIKHAN27980</t>
+  </si>
+  <si>
+    <t>MOHSIN7812</t>
   </si>
 </sst>
 </file>
@@ -357,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,13 +393,23 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2">
         <v>12345678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
@@ -363,7 +363,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Case</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>MOHSIN7812</t>
+  </si>
+  <si>
+    <t>YASIR113</t>
   </si>
 </sst>
 </file>
@@ -363,7 +366,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,7 +396,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Case</t>
   </si>
@@ -45,7 +45,13 @@
     <t>MOHSIN7812</t>
   </si>
   <si>
-    <t>YASIR113</t>
+    <t>RIZI</t>
+  </si>
+  <si>
+    <t>CCCC</t>
+  </si>
+  <si>
+    <t>SHAISTADAR</t>
   </si>
 </sst>
 </file>
@@ -366,7 +372,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,7 +402,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -408,6 +414,16 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Case</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>SHAISTADAR</t>
+  </si>
+  <si>
+    <t>YASIR113</t>
   </si>
 </sst>
 </file>
@@ -372,7 +375,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,7 +405,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -424,6 +427,11 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBLogin.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Case</t>
   </si>
@@ -33,25 +33,22 @@
     <t>OTP_Value</t>
   </si>
   <si>
-    <t>When user id and password are valid</t>
-  </si>
-  <si>
     <t>pakistan1</t>
   </si>
   <si>
-    <t>SAMIKHAN27980</t>
-  </si>
-  <si>
-    <t>MOHSIN7812</t>
-  </si>
-  <si>
-    <t>RIZI</t>
-  </si>
-  <si>
-    <t>CCCC</t>
-  </si>
-  <si>
-    <t>SHAISTADAR</t>
+    <t>GANGSTER</t>
+  </si>
+  <si>
+    <t>MF123</t>
+  </si>
+  <si>
+    <t>When user id and password are valid mutual_fund</t>
+  </si>
+  <si>
+    <t>When user id and password are valid Multi_Bill</t>
+  </si>
+  <si>
+    <t>When user id and password are valid normal_user</t>
   </si>
   <si>
     <t>YASIR113</t>
@@ -372,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -402,41 +399,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
       <c r="D2">
         <v>12345678</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>12345678</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>6</v>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>12345678</v>
       </c>
     </row>
   </sheetData>
